--- a/biology/Médecine/Main_rhumatisante/Main_rhumatisante.xlsx
+++ b/biology/Médecine/Main_rhumatisante/Main_rhumatisante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rhumatisme des mains est une maladie inflammatoire responsable de douleurs aux articulations des mains et des poignets. C'est une pathologie qui se déclare surtout chez les femmes. Les articulations touchées sont gonflées, douloureuses, et se déforment avec l'évolution de la maladie. L'arthrose et l'arthrite rhumatoïde sont les deux causes principales des mains rhumatisantes.
 </t>
@@ -511,7 +523,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies les plus courantes causant les rhumatismes aux mains sont :
 l'arthrose
@@ -520,7 +534,7 @@
 l’hémodialyse
 le rhumatisme psoriasique
 Périostite et synovite des articulations interphalangiennes proximales sont des signes autant anatomiques que remnographiques typiques en cas d’arthrite psoriasique.
-Synovite avec érosions de la radio-carpienne, de la médio-carpienne, des carpo-métacarpiennes et des métacarpo-phalangiennes  sont des signes anatomiques et remnographiques typiques en cas de polyarthrite rhumatoïde[1].
+Synovite avec érosions de la radio-carpienne, de la médio-carpienne, des carpo-métacarpiennes et des métacarpo-phalangiennes  sont des signes anatomiques et remnographiques typiques en cas de polyarthrite rhumatoïde.
 </t>
         </is>
       </c>
